--- a/medicine/Psychotrope/Glossaire_du_whisky/Glossaire_du_whisky.xlsx
+++ b/medicine/Psychotrope/Glossaire_du_whisky/Glossaire_du_whisky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le glossaire du whisky couvre la terminologie d'usage courant dans le monde du whisky. En raison de l'origine anglo-saxonne de l'eau-de-vie, le jargon pratiqué dans l'univers du whisky (ou whiskey) fait un usage très abondant de l'anglais, mais les équivalents français existent souvent.
 Sommaire :
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>abv : « alcohol by volume », teneur en alcool, exprimée en pourcentage du volume. En Écosse, la teneur minimale pour mériter l'appellation « whisky » est 40 % abv ;
 Âge :
@@ -573,7 +587,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Barley : voir orge.
 Blend ou Blended whisky : whisky provenant de plusieurs distilleries différentes et pouvant être composés à partir de céréales différentes et par modes d'élaboration différents. Plusieurs dizaines de whiskys peuvent ainsi être élaborés pour créer un blend, qui reste la forme de whisky la plus consommée dans le monde.
@@ -609,7 +625,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cask strength : voir brut de fût ;
 Cohobateur : petit alambic spécifiquement destiné à la seconde distillation ;
@@ -643,7 +661,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dram : terme écossais désignant un petit verre de whisky.</t>
         </is>
@@ -673,7 +693,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Exciseman : fonctionnaire de l'administration fiscale britannique (HM Revenue and Customs) chargé de prélever le droit d'accise (excise en anglais). Il s'assure également de la conformité des opérations de production de whisky avec la législation en vigueur.</t>
         </is>
@@ -703,7 +725,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Filtration à froid :
 Fût :</t>
@@ -734,7 +758,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Grist : farine grossière de malt. Le grist est ensuite mélangé à de l'eau dans une cuve-matière.</t>
         </is>
@@ -764,7 +790,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Hogshead : fût utilisé pour contenir divers liquides. Dans le cas de bière ou du whisky, les capacités sont approximativement de 250 litres.</t>
         </is>
@@ -794,7 +822,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Irish whiskey : whisky élaboré en Irlande, typiquement avec l'orge maltée et non maltée et distillé trois fois ;
 Islay whisky : un Scotch whisky produit sur l'île d'Islay (Écosse)</t>
@@ -826,6 +856,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -851,7 +883,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Kiln : pièce servant au séchage du malt, traditionnellement surmontée d'une cheminée en forme de pagode.</t>
         </is>
@@ -882,6 +916,8 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -907,7 +943,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Malt :  céréale germée, en général de l'orge.
 Malterie : lieu de production du malt. Aujourd'hui, le processus est industrialisé et des usines dédiées à la seule production de malt sont exploitées. Par exemple, la malterie de Port Ellen sur l'île d'Islay en Écosse fournit plusieurs distilleries concurrentes, chacune selon des spécifications différentes.
@@ -941,6 +979,8 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -966,7 +1006,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Orge : céréale qui une fois germée se transforme en malt et constitue l'élément de base de l'élaboration du whisky.</t>
         </is>
@@ -996,7 +1038,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Part des anges : expression désignant le whisky qui s'évapore des fûts stockés dans les entrepôts. Son volume annuel est estimé à environ 2 % du fût ;
 Patent still : voir alambic à colonne ;
@@ -1031,7 +1075,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Queue de distillation :</t>
         </is>
@@ -1061,7 +1107,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Rendement : volume d'alcool pur produit à partir d'un tonne de malt ;
 Rye whisky : whisky à base de seigle ;</t>
@@ -1092,7 +1140,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Single grain : appellation écossaise désignant le whisky de grain issu d'une seule distillerie ;
 Single malt : whisky de malt issu d'une seule distillerie ;
@@ -1125,7 +1175,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Tourbe :</t>
         </is>
@@ -1155,7 +1207,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Uisge beatha :</t>
         </is>
@@ -1185,7 +1239,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Vatted malt : voir Blended malt.</t>
         </is>
@@ -1215,7 +1271,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Washback : récipient où sont mélangés le wort et la levure ;
 Wort :</t>
@@ -1247,6 +1305,8 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1272,7 +1332,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Yield : voir rendement.</t>
         </is>
@@ -1303,6 +1365,8 @@
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
